--- a/gameData/shared/KillDropItems.xlsx
+++ b/gameData/shared/KillDropItems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6300" yWindow="1160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="grassLand" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>dragonMaterials:ingo_1:1:50,dragonMaterials:redCrystal_1:1:50</t>
+  </si>
+  <si>
+    <t>INT_killScoreMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_killScoreMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -761,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -775,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1403,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
